--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_292.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_292.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,478 +488,526 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_191</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3238636363636364</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['B:min', 'F#:maj/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(32.7, 45.64)]</t>
+          <t>[['D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(9.9, 34.68)]</t>
+          <t>[('0:00:16.260000', '0:00:19.340000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:01:28.760000', '0:01:38.300000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_8</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2848837209302326</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
-        </is>
+          <t>isophonics_204</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_107</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2769230769230769</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>[['A', 'D', 'A', 'A']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(32.52, 47.4)]</t>
+          <t>[['E', 'A', 'E', 'E']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(61.88, 67.8)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:33.698526', '0:00:42.916848')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:15.027029', '0:00:22.457415')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_282</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2875</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Bb', 'F']]</t>
-        </is>
+          <t>isophonics_60</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_30</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.07138857782754759</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'A:maj']]</t>
+          <t>[['C', 'G', 'A:min'], ['C', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(29.719863, 35.722222)]</t>
+          <t>[['D/7', 'A/3', 'B:min'], ['D', 'E', 'A']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(61.02, 68.7)]</t>
+          <t>[('0:00:58.990317', '0:01:03.680748'), ('0:00:00.980790', '0:00:05.421882')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:3Am0IbOxmvlSXro7N5iSfZ</t>
+          <t>[('0:00:11.062412', '0:00:12.567886'), ('0:00:01.921537', '0:00:05.694779')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_31</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1020242914979757</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G', 'E:min', 'A:min'], ['G', 'C', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_173</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>jaah_13</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.09351927809680066</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:maj', 'E:min', 'A:min/C'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['D:7', 'G:maj', 'G:maj/B'], ['G:maj', 'G:maj/B', 'D:7']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(26.115071, 38.793167), (17.581738, 30.271443)]</t>
+          <t>[['Bb:7', 'Eb', 'Eb'], ['Eb', 'Eb', 'Bb:7']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(11.14, 16.92), (18.26, 24.82)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:18.300000', '0:00:20.680000'), ('0:00:18.920000', '0:00:21.320000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:07.870000', '0:00:14.660000'), ('0:00:28.190000', '0:00:36.120000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_80</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_7</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.0218297625940938</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['G:min7', 'C:7', 'F', 'F']]</t>
-        </is>
+          <t>isophonics_273</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_0</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1079545454545455</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F:min7', 'Bb:7', 'Eb', 'Eb']]</t>
+          <t>[['C', 'G', 'C']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(20.73, 24.83)]</t>
+          <t>[['Db', 'Ab', 'Db']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(8.35, 11.88)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:20.801000', '0:00:27.165000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:01:02.096530', '0:01:12.371360')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_33</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_83</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.5142857142857142</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
-        </is>
+          <t>schubert-winterreise_184</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_149</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>[['G:min', 'A:hdim7/C', 'D:7', 'G:min', 'G:min', 'A:hdim7/C', 'D:7', 'G:min', 'F#:dim7', 'G:min', 'F#:dim7', 'D:maj/A', 'G:min/A#', 'F:maj/A', 'D#:maj/G', 'A#:maj/F', 'D#:maj', 'A#:maj/F', 'F:7', 'A#:maj', 'D#:maj/G', 'D:min/A', 'A:7', 'D:min', 'C#:dim7/E', 'D:min/F', 'D:(3,5,b7,b9)/F#', 'G:min', 'G:(3,5,b7,b9)', 'C:min', 'G:min/D', 'D:(3,5,b7,b9)', 'F#:dim7', 'A:hdim7/C', 'F#:dim7', 'A:hdim7/C', 'D:(3,5,b7,b9)', 'G:min', 'G:(3,5,b7,b9)/B', 'C:min', 'G:min/D', 'D:(3,5,b7,b9)', 'G:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(63.6, 66.04)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(132.3, 136.56)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+          <t>[('0:00:09.180000', '0:01:01')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:10.560000', '0:01:09.420000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_221</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_123</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2911877394636015</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F/2', 'C', 'F', 'C/3']]</t>
-        </is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_141</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A', 'E']]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(57.758, 65.204)]</t>
+          <t>[['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(9.156734, 13.057687)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:01:03.040000', '0:01:05.240000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:01:11.640000', '0:01:19.220000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_109</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.6875</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A']]</t>
-        </is>
+          <t>isophonics_58</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_59</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4152823920265781</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>[['F', 'C', 'G', 'F', 'C']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(94.925, 100.821)]</t>
+          <t>[['C/5', 'G', 'D', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(59.22, 66.88)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:00:41.895260', '0:00:59.802639')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:37.239569', '0:00:43.090997')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_4</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_139</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3311965811965812</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj'], ['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_13</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3819444444444445</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj'], ['D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min']]</t>
+          <t>[['B:maj', 'F#:7', 'B:maj', 'F#:7', 'B:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(6.88, 15.96), (8.24, 18.54)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(0.66, 6.48), (1.26, 8.22)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:00:00.320000', '0:00:10.960000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:07.160000', '0:00:19.200000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_85</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2153846153846154</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_39</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:min/A', 'A:7', 'D:min'], ['D:min', 'A:maj', 'D:min']]</t>
+          <t>[['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(7.7, 12.06), (0.34, 4.84)]</t>
+          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(109.52, 114.2), (1.26, 5.44)]</t>
+          <t>[('0:00:27.160000', '0:00:38.460000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:01:33.100000', '0:01:51.540000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2223837209302326</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
-        </is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4211538461538462</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(94.06, 113.5)]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(60.76, 66.82)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:19.500000', '0:00:49.860000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:01:14.700000', '0:01:34.120000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'F:maj', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(74.5, 80.42), (11.7, 20.02)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(9.26, 13.9), (1.18, 6.14)]</t>
+          <t>[('0:02:01.740000', '0:02:08.480000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:01:47.100000', '0:01:51.480000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
@@ -963,76 +1016,90 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_56</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_85</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1606039807824297</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['Ab:maj6', 'Ab:maj6', 'Eb:7', 'Eb:7', 'Ab:maj6', 'Ab:maj6']]</t>
-        </is>
+          <t>schubert-winterreise_121</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_44</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['Ab:maj6', 'Ab:maj6', 'Eb:7', 'Eb:7', 'Ab:maj6', 'Ab:maj6']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(71.59, 78.0)]</t>
+          <t>[['A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min', 'A#:min/F', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min', 'A#:min/F', 'F:7', 'A#:min', 'G#/C', 'G#:7', 'C#', 'A#:min', 'D#:7/A#', 'G#', 'C#/F', 'G#:7/D#', 'C#/F', 'G#:7', 'C#', 'C:dim7/C#', 'C#:7', 'F#', 'D#:min', 'G#:7/D#', 'C#', 'F#/A#', 'C#:7/G#', 'F#/A#', 'C#', 'F#', 'C:hdim7/D#', 'A#:min/C#', 'C:hdim7/D#', 'A#:min/C#', 'C#/F', 'A#:min/F', 'F:7', 'A#:min', 'C:hdim7/D#', 'A#:min/C#', 'C#/F', 'A#:min/F', 'F:7', 'A#:min', 'A:dim7/A#', 'A#:min', 'D#:min', 'A#:min/F', 'D#:min7/F#', 'A#:min/F', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(30.26, 35.49)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:17.900000', '0:01:52.420000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:15.900000', '0:01:46.380000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_79</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.07731416549789621</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['F:7', 'Bb', 'Bb'], ['Bb', 'Bb', 'F:7']]</t>
-        </is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:maj/A'], ['F:maj', 'F:maj/A', 'C:7']]</t>
+          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(10.86, 14.13), (7.59, 10.86)]</t>
+          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(17.9, 20.08), (18.48, 20.7)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:00.380000', '0:00:21.840000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:01.640000', '0:00:23.800000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
@@ -1041,76 +1108,44 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_108</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_248</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.08125</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_72</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_167</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F#/4', 'B', 'E/5']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(20.776621, 32.769727)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(127.431, 132.656)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:00.380000', '0:00:31.160000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:00.580000', '0:00:38.340000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_167</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_44</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.08749999999999999</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['C:min', 'F:7/A', 'A#:maj'], ['C:maj', 'G:7', 'C:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'D#:7/A#', 'G#'], ['A#/F', 'F:7', 'A#']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(34.24, 39.86), (0.58, 8.96)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(40.4, 43.34), (271.22, 275.78)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
